--- a/pcitc-stp/src/main/resources/static/budget/budget_groupsplit_template.xlsx
+++ b/pcitc-stp/src/main/resources/static/budget/budget_groupsplit_template.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>单位：万元</t>
   </si>
@@ -35,14 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,6 +44,10 @@
   </si>
   <si>
     <t>机械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +65,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -110,13 +124,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,20 +454,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C23" sqref="C23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="20" width="15.625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="24" width="8.625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2"/>
@@ -445,66 +480,240 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="8">
+        <f>SUM(C6:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" ref="D23:G23" si="0">SUM(D6:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>